--- a/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_mod5mils_65.qasm_rb2_archsize3_mini_dis.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_mod5mils_65.qasm_rb2_archsize3_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.004399776458740234</v>
+        <v>0.009638071060180664</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0002717971801757812</v>
+        <v>0.0002791881561279297</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0001852512359619141</v>
+        <v>0.0003170967102050781</v>
       </c>
     </row>
     <row r="8">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9229330928960674</v>
+        <v>0.9229232483289144</v>
       </c>
     </row>
     <row r="26">
@@ -636,23 +636,23 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-3.2</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -662,90 +662,100 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.007180929183959961</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.01368999481201172</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="N32" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>

--- a/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_mod5mils_65.qasm_rb2_archsize3_mini_dis.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_mod5mils_65.qasm_rb2_archsize3_mini_dis.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.009638071060180664</v>
+        <v>0.0006148815155029297</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0002791881561279297</v>
+        <v>0.0005147457122802734</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0003170967102050781</v>
+        <v>0.002088785171508789</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(0, 2), (0, 0), (1, 0), (0, 1), (1, 1)]</t>
+          <t>[[0, 2], [0, 0], [1, 0], [0, 1], [1, 1]]</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01368999481201172</v>
+        <v>0.006358861923217773</v>
       </c>
     </row>
     <row r="32">
